--- a/biology/Médecine/Curare/Curare.xlsx
+++ b/biology/Médecine/Curare/Curare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le curare est une substance extraite de certaines lianes d'Amazonie, notamment Chondodendron tomentosum et Strychnos toxifera. Utilisés depuis des siècles par les autochtones et découverts par l'Occident à la fin du XVIe siècle, les curares sont aujourd'hui fréquemment utilisés dans les services de chirurgie ou de réanimation.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie du mot « curare » est incertaine : il pourrait venir  du mot « ourari[3] » qui signifie « la mort qui tue tout bas » ; il pourrait aussi venir du mot caraïbe k-urary, « là où il vient, on tombe » (de « our » et « ar », venir et tomber en guarani). Une autre étymologie est possible : la contraction en tupi du mot « oiseau » (Uira) et du mot « liquide » (y) pour « liquide qui tue les oiseaux ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du mot « curare » est incertaine : il pourrait venir  du mot « ourari » qui signifie « la mort qui tue tout bas » ; il pourrait aussi venir du mot caraïbe k-urary, « là où il vient, on tombe » (de « our » et « ar », venir et tomber en guarani). Une autre étymologie est possible : la contraction en tupi du mot « oiseau » (Uira) et du mot « liquide » (y) pour « liquide qui tue les oiseaux ».
 Le curare est également connu comme Bejuco de Mavacure, Ampi, Kurari, Tooorara, Voorara, Wouraru, Wuratit, Woorari, Woorara, Woorali, Wourali, Wouralia, Ourare, Ourari, Urare, Ouraryt veneno, Urari (ce qui signifie en galibi : « la mort qui tue tout bas ») et Uirary, Wilalakayevi pour la liane Sciadotenia  (ce qui signifie, « branches » et « rebrousser de chemin » ou « changer de direction » car ses branches changent de direction), Supai Hausca (corde du diable) pour la liane Strychnos et wayana Ulali, Wilali ce qui signifie « arbre ».
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La d-tubocurarine, l'alcaloïde populaire du curare utilisé en médecine, était disponible comme tubocurarin, tubocurarinum, delacurarine, tubarine, metubine, jexin, HSDB 2152, alcaloïde d'isoquinoline, tubadil, mécostrin, intracostine et intocostrine.
 </t>
@@ -576,12 +592,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est aux détours d’une expédition en Guyane qu'un marin de Walter Raleigh, Lawrence Keymis († 1618), mentionna vers 1596 un poison appelé ourari[4]. Au XVIIIe siècle, José Gumilla nomma le curare et décrivit ses effets dans son El Orenoco ilustrado... : les Sud-Amérindiens en enduisaient les flèches qu’ils lançaient avec une sarbacane pour chasser. Le gibier était empoisonné par paralysie musculaire quelques instants après avoir été touchés, ce qui évitait d’effrayer les autres cibles potentielles. La consommation de la viande restait possible, le curare n’étant pas actif en cas d'ingestion[5]. En 1745, Charles Marie de La Condamine en rapporta les premiers échantillons connus.
-Harold Randall Griffith (1894 – 1985) et Enid Johnson utilisent en 1942, l’intocostrine, préparation commerciale à base de Chondodendron tomentosum, pour provoquer un relâchement musculaire lors d’une anesthésie générale[6].
-Dès 1943, Oscar Wintersteiner et  James Dutcher isolèrent la d-tubocurarine de cette même plante[7].
-En 1946, Daniel Bovet et ses collaborateurs aboutirent à l’Institut Pasteur, dans le laboratoire d’Ernest Fourneau, au premier curarisant de synthèse[8], le 2559 F ou triiodoéthylate de gallamine, breveté sous le nom de Flaxédil, cinq fois plus actif que la tubocurarine[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est aux détours d’une expédition en Guyane qu'un marin de Walter Raleigh, Lawrence Keymis († 1618), mentionna vers 1596 un poison appelé ourari. Au XVIIIe siècle, José Gumilla nomma le curare et décrivit ses effets dans son El Orenoco ilustrado... : les Sud-Amérindiens en enduisaient les flèches qu’ils lançaient avec une sarbacane pour chasser. Le gibier était empoisonné par paralysie musculaire quelques instants après avoir été touchés, ce qui évitait d’effrayer les autres cibles potentielles. La consommation de la viande restait possible, le curare n’étant pas actif en cas d'ingestion. En 1745, Charles Marie de La Condamine en rapporta les premiers échantillons connus.
+Harold Randall Griffith (1894 – 1985) et Enid Johnson utilisent en 1942, l’intocostrine, préparation commerciale à base de Chondodendron tomentosum, pour provoquer un relâchement musculaire lors d’une anesthésie générale.
+Dès 1943, Oscar Wintersteiner et  James Dutcher isolèrent la d-tubocurarine de cette même plante.
+En 1946, Daniel Bovet et ses collaborateurs aboutirent à l’Institut Pasteur, dans le laboratoire d’Ernest Fourneau, au premier curarisant de synthèse, le 2559 F ou triiodoéthylate de gallamine, breveté sous le nom de Flaxédil, cinq fois plus actif que la tubocurarine.
 </t>
         </is>
       </c>
@@ -610,15 +628,17 @@
           <t>Préparation traditionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La préparation du curare (ourari) varie suivant les tribus amazoniennes[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La préparation du curare (ourari) varie suivant les tribus amazoniennes.
 Dans son ouvrage intitulé "Deux années au Brésil" (1862), le peintre François-Auguste Biard a décrit ainsi la fabrication du curare par les Arara :
 Un jour, toute la tribu s'assemble, on entasse autour d'un vaste foyer des amas de branches et de feuilles sèches. Plusieurs vieilles Indiennes doivent allumer le feu et l'entretenir pendant trois jours. Deux perches liées ensemble par le haut sont fichées en terre, et du sommet pend, accrochée à de fortes lianes, une grande panella. Quelques hommes, séparés en deux troupes, vont couper dans la forêt la liane vénéneuse dont le curare est en partie composé, et remplir à la rivière des vases qu'ils apportent solennellement, ainsi que les lianes, dans un cercle que les victimes ne peuvent plus quitter tant que dure la fabrication.
 Ils se jettent tous à terre en chantant à voix basse : « Ainsi tomberont ceux qui seront frappés par nos flèches ». Et chacun va prendre sa place dans le cercle formé le premier jour par les membres de la tribu, assez près du lieu où déjà les vieilles femmes ont jeté dans la panella l'eau, les lianes et des matières inconnues, dont Joao ne put, ou ne voulut pas me dire le nom. 
 Le second jour, le feu est plus considérable, les exhalaisons qui s'échappent de la panella font agrandir le cercle. Quand vient le troisième jour, c'est un véritable brasier. Vers le soir, le feu s'éteint peu à peu, les fumées vénéneuses se dissipent. L'œuvre mystérieuse est accomplie, le poison est bon, et les vieilles femmes sont mortes...
-cependant, la toxicité des vapeurs reste non vérifiée et il est probable que cette histoire soit une fable j.vellard dit : "les vapeurs que j'ai volontairement respirées ne m'ont jamais causé le moindre malaise "[11]
-La recette des Tecuna et Java d'Amazonie a aussi été documentée[12],[13].
+cependant, la toxicité des vapeurs reste non vérifiée et il est probable que cette histoire soit une fable j.vellard dit : "les vapeurs que j'ai volontairement respirées ne m'ont jamais causé le moindre malaise "
+La recette des Tecuna et Java d'Amazonie a aussi été documentée,.
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches conduisirent progressivement    à la découverte de la curarine, de la curine, de la d-tuborcurarine   et de l' intocostrine.
 </t>
@@ -678,7 +700,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Par extension, un curare désigne un médicament aux propriétés curarisantes, utilisé en anesthésie pour provoquer un relâchement musculaire. Dans ce cas, le patient est en même temps maintenu sous sédation, souvent avec un morphinique, car les sensations provoquées par le curare sont très angoissantes si le patient en est conscient. Les indications pour l'administration d'un curare sont :
 faciliter l'intubation trachéale ;
@@ -687,78 +711,187 @@
 supprimer les contractures musculaires par exemple dans la sismothérapie.
 Concernant les curare dépolarisants :
 Le blocage neuromusculaire n’est pas levé par les inhibiteurs des cholinestérases, et est même prolongé; une prolongation de cet effet se produit également avec des antibiotiques (entre autres des aminoglycosides), le lithium, des œstrogènes et des contraceptifs contenant des estrogènes.
-Curare dépolarisant
-Le seul curare dépolarisant utilisé couramment en milieu hospitalier est la succinylcholine (Anectine, Celocurine). Sa fixation au récepteur nicotinique de l'acétylcholine entraîne une dépolarisation prolongée du muscle. Les fasciculations (spasmes musculaires) qu'elle entraîne sont la cause de douleurs musculaires au réveil du patient (courbatures).
-Curare non dépolarisant
-C'est le cas de la quasi-totalité des bloqueurs neuromusculaires. Leur fixation aux récepteur nicotinique de l'acétylcholine n'entraîne pas de dépolarisation du muscle.
-Curare et anesthésie
-Les tentatives d'utilisation du curare pour l'anesthésie remontent à 1912 par Arthur Lawen de Leipzig[23]. Mais le curare fut lié à l'anesthésie par l'intermédiaire de la psychiatrie (electroplexy). En 1939, Bennett (en) avait l'habitude de modifier le métrazol en thérapie convulsive[24]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Curare dépolarisant</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul curare dépolarisant utilisé couramment en milieu hospitalier est la succinylcholine (Anectine, Celocurine). Sa fixation au récepteur nicotinique de l'acétylcholine entraîne une dépolarisation prolongée du muscle. Les fasciculations (spasmes musculaires) qu'elle entraîne sont la cause de douleurs musculaires au réveil du patient (courbatures).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Curare non dépolarisant</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le cas de la quasi-totalité des bloqueurs neuromusculaires. Leur fixation aux récepteur nicotinique de l'acétylcholine n'entraîne pas de dépolarisation du muscle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Curare et anesthésie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tentatives d'utilisation du curare pour l'anesthésie remontent à 1912 par Arthur Lawen de Leipzig. Mais le curare fut lié à l'anesthésie par l'intermédiaire de la psychiatrie (electroplexy). En 1939, Bennett (en) avait l'habitude de modifier le métrazol en thérapie convulsive. 
 Ces curarisants sont employés dans l'anesthésie moderne pour de nombreuses raisons, car ils facilitent l'intubation de la trachée. Avant ces curarisants, les anesthésistes devaient employer de grandes doses d'anesthésiques, comme l'éther, le chloroforme ou le cyclopropane, pour réaliser ces objectifs. Une telle anesthésie profonde risquait de tuer les patients âgés ou atteints de maladie cardiaque. 
 Depuis les années 1930, le curare fut employé dans les hôpitaux comme relaxant musculaire (myorésolutif). On découvrit que les différents types de curare en Amazonie ne contenaient pas moins de 15 ingrédients.
 Le 23 janvier 1942, les  Dr Harold Griffith (en) et Dr Enid Johnson Macleod (en) ont donné une préparation synthétique du curare (Intracostine/Intocostrine) à un patient subissant une appendicectomie (anesthésie conventionnelle de supplément). Le curare (d-tubocurarine) n'est pas alors considéré comme le meilleur agent disponible pour l'anesthésie et la chirurgie. Une fois utilisé avec l'halothane, la d-tubocurarine peut causer une chute profonde de la tension artérielle chez quelques patients car les deux médicaments ont un effet ganglioplégique. Il est plus sûr d'employer la d-tubocurarine avec de l'éther.
 En 1954, un article sensationnel a été publié par Lyman Beecher Todd, suggérant que l'utilisation de curarisants (médicaments semblables au curare) augmentait de six fois le risque de mortalité dû à l'anesthésie. Ceci a été complètement réfuté par la suite.
-Les anesthésistes d'aujourd'hui ont à leur disposition une grande variété de curarisants en anesthésie. La capacité de réaliser un relâchement musculaire indépendamment de la sédation a permis aux anesthésistes d'ajuster séparément ces deux effets (myorelaxation et sédation) de façon à s'assurer que leurs patients aient atteint, sans risque, le degré d'inconscience et de relaxation musculaire requis pour permettre l'intervention chirurgicale. Cependant, parce que les curarisants n'ont aucun effet sur la conscience, il est possible, par erreur ou accidentellement, qu'un patient puisse rester entièrement conscient et sensible à la douleur pendant la chirurgie, tout en étant incapable de bouger ou parler, et ainsi incapable d'alerter le personnel sur leur douleur et leur état de veille. Ce risque est maintenant considérablement réduit avec le moniteur bispectral ou BIS (monitorage en salle d'opération) par exemple[25].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Curare</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Les anesthésistes d'aujourd'hui ont à leur disposition une grande variété de curarisants en anesthésie. La capacité de réaliser un relâchement musculaire indépendamment de la sédation a permis aux anesthésistes d'ajuster séparément ces deux effets (myorelaxation et sédation) de façon à s'assurer que leurs patients aient atteint, sans risque, le degré d'inconscience et de relaxation musculaire requis pour permettre l'intervention chirurgicale. Cependant, parce que les curarisants n'ont aucun effet sur la conscience, il est possible, par erreur ou accidentellement, qu'un patient puisse rester entièrement conscient et sensible à la douleur pendant la chirurgie, tout en étant incapable de bouger ou parler, et ainsi incapable d'alerter le personnel sur leur douleur et leur état de veille. Ce risque est maintenant considérablement réduit avec le moniteur bispectral ou BIS (monitorage en salle d'opération) par exemple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les curares n'agissent que sur les muscles striés squelettiques et n'ont donc aucune action sédative. Ils agissent de manière compétitive en bloquant les récepteurs nicotiniques d'acétylcholine, ce qui empêche les muscles de se contracter. Les curares agissent en fait sur la jonction neuromusculaire.
-L'injection intraveineuse de curare entraîne une paralysie différentielle des muscles : ptôse palpébrale dans les 30 secondes, paralysie du diaphragme au bout de 2 à 3 minutes (d'où, en l'absence de sédation, une asphyxie consciente utilisée parfois en euthanasie[26]), paralysie des membres inférieurs au bout de 3 à 5 minutes. L'injection intramusculaire agit au bout de 15 à 25 minutes[27].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Curare</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+L'injection intraveineuse de curare entraîne une paralysie différentielle des muscles : ptôse palpébrale dans les 30 secondes, paralysie du diaphragme au bout de 2 à 3 minutes (d'où, en l'absence de sédation, une asphyxie consciente utilisée parfois en euthanasie), paralysie des membres inférieurs au bout de 3 à 5 minutes. L'injection intramusculaire agit au bout de 15 à 25 minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les curares sont, parmi les substances utilisées en anesthésiologie, celles qui exposent au plus grand risque de réaction allergique grave.
 La paralysie qu'ils entraînent rend l'assistance respiratoire indispensable, et l'impossibilité de réaliser cette dernière peut entraîner la mort. L'utilisation de ces médicaments est réservée aux praticiens ayant reçu une formation en anesthésie et en réanimation.
@@ -766,31 +899,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Curare</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Dans Tintin et l'oreille cassée, la tribu des Arumbayas utilisent des fléchettes empoisonnées au curare pour se défendre des étrangers s'aventurant sur leurs terres.
 Dans le giallo italien Les Sept Châles de soie jaune (7 scialli di seta gialla) sorti en 1972, l'assassin imprègne de curare les griffes d'un chat agacé par un répulsif pour faire croire à la mort naturelle de ses victimes.
@@ -799,31 +934,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Curare</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Curare</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Train-de-quatre</t>
         </is>
